--- a/notebooks/SPTAN1/input/SPTAN1_individuals_HMND11.xlsx
+++ b/notebooks/SPTAN1/input/SPTAN1_individuals_HMND11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E5A00-1B03-0C40-AAF0-121C9FBEBC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBAADB-B4AB-BA4B-9F0B-0F7935B92C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0C255580-A950-2745-BDF7-A80E19160B11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>PMID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>individual_id</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>disease_id</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>optional str</t>
   </si>
   <si>
-    <t>HGVS str</t>
-  </si>
-  <si>
     <t>iso8601</t>
   </si>
   <si>
@@ -297,15 +291,55 @@
   </si>
   <si>
     <t>observed</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>HGNC:11273</t>
+  </si>
+  <si>
+    <t>SPTAN1</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>age_at_last_encounter</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,8 +366,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A51933-1BB2-C04D-9EC2-CA3884C34BBB}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,352 +703,388 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AF4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/SPTAN1/input/SPTAN1_individuals_HMND11.xlsx
+++ b/notebooks/SPTAN1/input/SPTAN1_individuals_HMND11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBAADB-B4AB-BA4B-9F0B-0F7935B92C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7345E-164C-D14D-95D0-2A57E06E4095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0C255580-A950-2745-BDF7-A80E19160B11}"/>
+    <workbookView xWindow="3640" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{0C255580-A950-2745-BDF7-A80E19160B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="172">
   <si>
     <t>PMID</t>
   </si>
@@ -77,12 +77,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
-    <t>iso8601</t>
-  </si>
-  <si>
     <t>M:F:O:U</t>
   </si>
   <si>
@@ -318,13 +312,253 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>PMID:31332438</t>
+  </si>
+  <si>
+    <t>Nonsense mutations in alpha-II spectrin in three families with juvenile onset hereditary motor neuropathy</t>
+  </si>
+  <si>
+    <t>Individual A:I:1</t>
+  </si>
+  <si>
+    <t>Individual A:II:2</t>
+  </si>
+  <si>
+    <t>Individual A:II:3</t>
+  </si>
+  <si>
+    <t>Individual A:II:4</t>
+  </si>
+  <si>
+    <t>Individual A:III:1</t>
+  </si>
+  <si>
+    <t>Individual A:III:2</t>
+  </si>
+  <si>
+    <t>Individual B:II:2</t>
+  </si>
+  <si>
+    <t>Individual B:III:2</t>
+  </si>
+  <si>
+    <t>Individual B:IV:1</t>
+  </si>
+  <si>
+    <t>Individual B:IV:2</t>
+  </si>
+  <si>
+    <t>Individual C:III:2</t>
+  </si>
+  <si>
+    <t>Individual C:III:3</t>
+  </si>
+  <si>
+    <t>c.415C&gt;T</t>
+  </si>
+  <si>
+    <t>c.4615C&gt;T</t>
+  </si>
+  <si>
+    <t>c.6460C&gt;T</t>
+  </si>
+  <si>
+    <t>p.R139*</t>
+  </si>
+  <si>
+    <t>p.Q1539*</t>
+  </si>
+  <si>
+    <t>c.6385C&gt;T</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
+    <t>P30Y</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>P3Y</t>
+  </si>
+  <si>
+    <t>P85Y</t>
+  </si>
+  <si>
+    <t>P58Y</t>
+  </si>
+  <si>
+    <t>P53Y</t>
+  </si>
+  <si>
+    <t>P46Y</t>
+  </si>
+  <si>
+    <t>P29Y</t>
+  </si>
+  <si>
+    <t>P26Y</t>
+  </si>
+  <si>
+    <t>P71Y</t>
+  </si>
+  <si>
+    <t>P43Y</t>
+  </si>
+  <si>
+    <t>P19Y</t>
+  </si>
+  <si>
+    <t>P11Y</t>
+  </si>
+  <si>
+    <t>P59Y</t>
+  </si>
+  <si>
+    <t>P52Y</t>
+  </si>
+  <si>
+    <t>Impaired vibratory sensation</t>
+  </si>
+  <si>
+    <t>Hypoesthesia</t>
+  </si>
+  <si>
+    <t>HP:0002495</t>
+  </si>
+  <si>
+    <t>HP:0033748</t>
+  </si>
+  <si>
+    <t>Loss of ambulation</t>
+  </si>
+  <si>
+    <t>HP:0002505</t>
+  </si>
+  <si>
+    <t>Unsteady gait</t>
+  </si>
+  <si>
+    <t>Steppage gait</t>
+  </si>
+  <si>
+    <t>Foot dorsiflexor weakness</t>
+  </si>
+  <si>
+    <t>Lower limb muscle weakness</t>
+  </si>
+  <si>
+    <t>Gait disturbance</t>
+  </si>
+  <si>
+    <t>Clumsiness</t>
+  </si>
+  <si>
+    <t>HP:0002317</t>
+  </si>
+  <si>
+    <t>HP:0003376</t>
+  </si>
+  <si>
+    <t>HP:0009027</t>
+  </si>
+  <si>
+    <t>HP:0007340</t>
+  </si>
+  <si>
+    <t>HP:0001288</t>
+  </si>
+  <si>
+    <t>HP:0002312</t>
+  </si>
+  <si>
+    <t>Upper limb amyotrophy</t>
+  </si>
+  <si>
+    <t>HP:0009129</t>
+  </si>
+  <si>
+    <t>Lower limb amyotrophy</t>
+  </si>
+  <si>
+    <t>HP:0007210</t>
+  </si>
+  <si>
+    <t>Areflexia of lower limbs</t>
+  </si>
+  <si>
+    <t>HP:0002522</t>
+  </si>
+  <si>
+    <t>Hyporeflexia of lower limbs</t>
+  </si>
+  <si>
+    <t>HP:0002600</t>
+  </si>
+  <si>
+    <t>Hallux valgus</t>
+  </si>
+  <si>
+    <t>Hammertoe</t>
+  </si>
+  <si>
+    <t>HP:0001765</t>
+  </si>
+  <si>
+    <t>HP:0001822</t>
+  </si>
+  <si>
+    <t>Claw toe deformity</t>
+  </si>
+  <si>
+    <t>HP:0034397</t>
+  </si>
+  <si>
+    <t>Hyporeflexia of upper limbs</t>
+  </si>
+  <si>
+    <t>HP:0012391</t>
+  </si>
+  <si>
+    <t>Upper limb muscle weakness</t>
+  </si>
+  <si>
+    <t>HP:0003484</t>
+  </si>
+  <si>
+    <t>Frequent falls</t>
+  </si>
+  <si>
+    <t>HP:0002359</t>
+  </si>
+  <si>
+    <t>Achilles tendon contracture</t>
+  </si>
+  <si>
+    <t>HP:0001771</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +579,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF292929"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +602,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -362,14 +610,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,15 +951,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A51933-1BB2-C04D-9EC2-CA3884C34BBB}">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -712,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -733,84 +1000,147 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>50</v>
-      </c>
       <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM1" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AU1" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" t="s">
-        <v>82</v>
+      <c r="AV1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -819,16 +1149,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -843,248 +1173,1619 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>83</v>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>84</v>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>84</v>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
